--- a/medicine/Sexualité et sexologie/Les_Filières_africaines_de_la_prostitution/Les_Filières_africaines_de_la_prostitution.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Filières_africaines_de_la_prostitution/Les_Filières_africaines_de_la_prostitution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Fili%C3%A8res_africaines_de_la_prostitution</t>
+          <t>Les_Filières_africaines_de_la_prostitution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Filières africaines de la prostitution est un  documentaire français réalisé par Olivier Enogo et Romaric Atchourou et sorti en 2005.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Fili%C3%A8res_africaines_de_la_prostitution</t>
+          <t>Les_Filières_africaines_de_la_prostitution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Enogo et Romaric Atchourou, journalistes d’origine camerounaise, décident d’enquêter sur les réseaux de prostitution africains dans les pays occidentaux[1],[2],[3],[4],[5],[6]. Durant un an, ils rencontrent, en Afrique et en France, parfois dans des conditions dangereuses, des victimes et leurs familles, des membres d’associations, des représentants d’institutions comme le Ministère des Affaires étrangères, la police...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Enogo et Romaric Atchourou, journalistes d’origine camerounaise, décident d’enquêter sur les réseaux de prostitution africains dans les pays occidentaux. Durant un an, ils rencontrent, en Afrique et en France, parfois dans des conditions dangereuses, des victimes et leurs familles, des membres d’associations, des représentants d’institutions comme le Ministère des Affaires étrangères, la police...
 </t>
         </is>
       </c>
